--- a/data/project_db.xlsx
+++ b/data/project_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayeletgoldstein/Dropbox/Hadassah College/Courses/AI in Medicine/בינה מלאכותית ברפואה _ MDSS_18/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\cdss-dev-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B252714A-A852-CB46-A633-0E315946D16E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83D8E1-0BAB-4D25-9F26-7698079AC09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1160" windowWidth="22760" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$G$257</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -222,8 +214,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -253,9 +245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,9 +285,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,26 +320,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,26 +355,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,23 +534,23 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -616,7 +574,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -640,7 +598,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -666,7 +624,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -692,7 +650,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -718,7 +676,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -744,7 +702,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -770,7 +728,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -796,7 +754,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -822,7 +780,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -848,7 +806,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -874,7 +832,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -900,7 +858,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -926,7 +884,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -952,7 +910,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -978,7 +936,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +962,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1030,7 +988,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1056,7 +1014,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1040,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1108,7 +1066,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1092,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1160,7 +1118,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1186,7 +1144,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1212,7 +1170,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1196,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1222,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1290,7 +1248,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1274,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1300,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1326,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1352,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1420,7 +1378,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1404,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1430,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1498,7 +1456,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +1482,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1508,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1534,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1560,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -1628,7 +1586,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1654,7 +1612,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -1680,7 +1638,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -1706,7 +1664,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1732,7 +1690,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1758,7 +1716,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1784,7 +1742,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -1810,7 +1768,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
@@ -1836,7 +1794,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -1862,7 +1820,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +1846,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1872,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1898,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1924,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,7 +1950,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -2018,7 +1976,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
@@ -2044,7 +2002,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2028,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2096,7 +2054,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -2122,7 +2080,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
@@ -2148,7 +2106,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2132,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2158,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -2226,7 +2184,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -2252,7 +2210,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2236,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2262,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +2288,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2314,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,7 +2340,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2366,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>32</v>
       </c>
@@ -2434,7 +2392,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,7 +2418,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
@@ -2486,7 +2444,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2470,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -2538,7 +2496,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
@@ -2564,7 +2522,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
@@ -2590,7 +2548,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -2616,7 +2574,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -2642,7 +2600,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -2668,7 +2626,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2694,7 +2652,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,7 +2678,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
@@ -2746,7 +2704,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>32</v>
       </c>
@@ -2772,7 +2730,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +2756,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -2824,7 +2782,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
@@ -2850,7 +2808,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>31</v>
       </c>
@@ -2876,7 +2834,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -2902,7 +2860,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
@@ -2928,7 +2886,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>31</v>
       </c>
@@ -2954,7 +2912,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>31</v>
       </c>
@@ -2980,7 +2938,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
@@ -3006,7 +2964,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>32</v>
       </c>
@@ -3032,7 +2990,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
@@ -3058,7 +3016,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>32</v>
       </c>
@@ -3084,7 +3042,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>32</v>
       </c>
@@ -3110,7 +3068,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>32</v>
       </c>
@@ -3136,7 +3094,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3120,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>32</v>
       </c>
@@ -3188,7 +3146,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
@@ -3214,7 +3172,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>32</v>
       </c>
@@ -3240,7 +3198,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>32</v>
       </c>
@@ -3266,7 +3224,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>32</v>
       </c>
@@ -3292,7 +3250,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>32</v>
       </c>
@@ -3318,7 +3276,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -3344,7 +3302,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -3370,7 +3328,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>28</v>
       </c>
@@ -3396,7 +3354,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -3422,7 +3380,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>33</v>
       </c>
@@ -3448,7 +3406,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +3432,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>28</v>
       </c>
@@ -3500,7 +3458,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>32</v>
       </c>
@@ -3526,7 +3484,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -3552,7 +3510,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>31</v>
       </c>
@@ -3578,7 +3536,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
@@ -3604,7 +3562,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
@@ -3630,7 +3588,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -3656,7 +3614,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>28</v>
       </c>
@@ -3682,7 +3640,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -3708,7 +3666,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -3734,7 +3692,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -3760,7 +3718,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>32</v>
       </c>
@@ -3786,7 +3744,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -3812,7 +3770,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3796,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>33</v>
       </c>
@@ -3864,7 +3822,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>28</v>
       </c>
@@ -3890,7 +3848,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -3916,7 +3874,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -3942,7 +3900,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
@@ -3968,7 +3926,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -3994,7 +3952,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>33</v>
       </c>
@@ -4020,7 +3978,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
@@ -4046,7 +4004,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>33</v>
       </c>
@@ -4072,7 +4030,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>33</v>
       </c>
@@ -4098,7 +4056,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>33</v>
       </c>
@@ -4124,7 +4082,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>33</v>
       </c>
@@ -4150,7 +4108,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>33</v>
       </c>
@@ -4176,7 +4134,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>28</v>
       </c>
@@ -4202,7 +4160,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>28</v>
       </c>
@@ -4228,7 +4186,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -4254,7 +4212,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -4280,7 +4238,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -4306,7 +4264,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -4332,7 +4290,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -4358,7 +4316,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -4384,7 +4342,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>28</v>
       </c>
@@ -4410,7 +4368,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>28</v>
       </c>
@@ -4436,7 +4394,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
@@ -4462,7 +4420,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>32</v>
       </c>
@@ -4488,7 +4446,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>32</v>
       </c>
@@ -4514,7 +4472,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>32</v>
       </c>
@@ -4540,7 +4498,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>32</v>
       </c>
@@ -4566,7 +4524,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>32</v>
       </c>
@@ -4592,7 +4550,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>32</v>
       </c>
@@ -4618,7 +4576,7 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -4644,7 +4602,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>32</v>
       </c>
@@ -4670,7 +4628,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>32</v>
       </c>
@@ -4696,7 +4654,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>32</v>
       </c>
@@ -4722,7 +4680,7 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>32</v>
       </c>
@@ -4748,7 +4706,7 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>32</v>
       </c>
@@ -4774,7 +4732,7 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>32</v>
       </c>
@@ -4800,7 +4758,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>32</v>
       </c>
@@ -4826,7 +4784,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>32</v>
       </c>
@@ -4852,7 +4810,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>31</v>
       </c>
@@ -4878,7 +4836,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>31</v>
       </c>
@@ -4904,7 +4862,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>31</v>
       </c>
@@ -4930,7 +4888,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>31</v>
       </c>
@@ -4956,7 +4914,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +4940,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>31</v>
       </c>
@@ -5008,7 +4966,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>31</v>
       </c>
@@ -5034,7 +4992,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>31</v>
       </c>
@@ -5060,7 +5018,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>31</v>
       </c>
@@ -5086,7 +5044,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>31</v>
       </c>
@@ -5112,7 +5070,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>31</v>
       </c>
@@ -5138,7 +5096,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>31</v>
       </c>
@@ -5164,7 +5122,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>31</v>
       </c>
@@ -5190,7 +5148,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>31</v>
       </c>
@@ -5216,7 +5174,7 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>31</v>
       </c>
@@ -5242,7 +5200,7 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -5268,7 +5226,7 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -5294,7 +5252,7 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>14</v>
       </c>
@@ -5320,7 +5278,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>14</v>
       </c>
@@ -5346,7 +5304,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -5372,7 +5330,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>14</v>
       </c>
@@ -5398,7 +5356,7 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>14</v>
       </c>
@@ -5424,7 +5382,7 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>14</v>
       </c>
@@ -5450,7 +5408,7 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
@@ -5476,7 +5434,7 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>14</v>
       </c>
@@ -5502,7 +5460,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>14</v>
       </c>
@@ -5528,7 +5486,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>14</v>
       </c>
@@ -5554,7 +5512,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>14</v>
       </c>
@@ -5580,7 +5538,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>14</v>
       </c>
@@ -5606,7 +5564,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -5632,7 +5590,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -5658,7 +5616,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
@@ -5684,7 +5642,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
@@ -5710,7 +5668,7 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -5736,7 +5694,7 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -5762,7 +5720,7 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>14</v>
       </c>
@@ -5788,7 +5746,7 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>14</v>
       </c>
@@ -5814,7 +5772,7 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
@@ -5840,7 +5798,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -5866,7 +5824,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -5892,7 +5850,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -5918,7 +5876,7 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -5944,7 +5902,7 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
@@ -5970,7 +5928,7 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>16</v>
       </c>
@@ -5996,7 +5954,7 @@
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
     </row>
-    <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
@@ -6022,7 +5980,7 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
-    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -6048,7 +6006,7 @@
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
-    <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -6074,7 +6032,7 @@
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
     </row>
-    <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>16</v>
       </c>
@@ -6100,7 +6058,7 @@
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
     </row>
-    <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>16</v>
       </c>
@@ -6126,7 +6084,7 @@
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
     </row>
-    <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -6152,7 +6110,7 @@
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
     </row>
-    <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -6178,7 +6136,7 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
     </row>
-    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>16</v>
       </c>
@@ -6204,7 +6162,7 @@
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
     </row>
-    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -6230,7 +6188,7 @@
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
     </row>
-    <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>16</v>
       </c>
@@ -6256,7 +6214,7 @@
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
     </row>
-    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -6282,7 +6240,7 @@
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
     </row>
-    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -6308,7 +6266,7 @@
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
     </row>
-    <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -6334,7 +6292,7 @@
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
     </row>
-    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -6360,7 +6318,7 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
     </row>
-    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>32</v>
       </c>
@@ -6386,7 +6344,7 @@
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
     </row>
-    <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>33</v>
       </c>
@@ -6412,7 +6370,7 @@
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>33</v>
       </c>
@@ -6438,7 +6396,7 @@
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>33</v>
       </c>
@@ -6464,7 +6422,7 @@
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>33</v>
       </c>
@@ -6490,7 +6448,7 @@
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
     </row>
-    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>33</v>
       </c>
@@ -6516,7 +6474,7 @@
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
     </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>33</v>
       </c>
@@ -6542,7 +6500,7 @@
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
     </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>33</v>
       </c>
@@ -6568,7 +6526,7 @@
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
     </row>
-    <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>33</v>
       </c>
@@ -6594,7 +6552,7 @@
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
     </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>33</v>
       </c>
@@ -6620,7 +6578,7 @@
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
     </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>33</v>
       </c>
@@ -6646,7 +6604,7 @@
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
     </row>
-    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>32</v>
       </c>
@@ -6672,7 +6630,7 @@
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
     </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>32</v>
       </c>
@@ -6698,7 +6656,7 @@
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
     </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>32</v>
       </c>
@@ -6724,7 +6682,7 @@
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
     </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>32</v>
       </c>
@@ -6750,7 +6708,7 @@
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>32</v>
       </c>
@@ -6776,7 +6734,7 @@
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>32</v>
       </c>
@@ -6802,7 +6760,7 @@
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
     </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>32</v>
       </c>
@@ -6828,7 +6786,7 @@
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
     </row>
-    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>32</v>
       </c>
@@ -6854,7 +6812,7 @@
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
     </row>
-    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>32</v>
       </c>
@@ -6880,7 +6838,7 @@
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
     </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>32</v>
       </c>
@@ -6906,7 +6864,7 @@
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
     </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
@@ -6932,7 +6890,7 @@
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>33</v>
       </c>
@@ -6958,7 +6916,7 @@
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
     </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>33</v>
       </c>
@@ -6984,7 +6942,7 @@
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>33</v>
       </c>
@@ -7010,7 +6968,7 @@
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>33</v>
       </c>
@@ -7036,7 +6994,7 @@
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>33</v>
       </c>
@@ -7062,7 +7020,7 @@
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
     </row>
-    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>28</v>
       </c>
@@ -7088,7 +7046,7 @@
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
     </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>28</v>
       </c>
@@ -7114,7 +7072,7 @@
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
     </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>28</v>
       </c>
@@ -7140,7 +7098,7 @@
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
     </row>
-    <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>32</v>
       </c>
@@ -7166,7 +7124,7 @@
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
     </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>32</v>
       </c>
@@ -7192,7 +7150,7 @@
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
     </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>32</v>
       </c>
@@ -7218,7 +7176,7 @@
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
     </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>31</v>
       </c>
@@ -7244,7 +7202,7 @@
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
     </row>
-    <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>31</v>
       </c>
@@ -7270,85 +7228,85 @@
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>

--- a/data/project_db.xlsx
+++ b/data/project_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\cdss-dev-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83D8E1-0BAB-4D25-9F26-7698079AC09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53807F9-BAAD-45DF-9683-C48833232280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -542,9 +542,9 @@
     <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.44140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="1"/>

--- a/data/project_db.xlsx
+++ b/data/project_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\cdss-dev-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19C69A2-24D5-4BC5-83DE-C9DCBA8E3367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3916BC18-3FD4-42A9-9155-749B09D69C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]d/m/yyyy\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,6 +187,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -238,6 +244,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,12 +258,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-1010409]d/m/yyyy\ h:mm;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
@@ -307,6 +310,12 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -321,18 +330,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368421E4-8352-48AB-B35B-E960839CEFF4}" name="Table1" displayName="Table1" ref="A1:H257" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368421E4-8352-48AB-B35B-E960839CEFF4}" name="Table1" displayName="Table1" ref="A1:H257" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H257" xr:uid="{368421E4-8352-48AB-B35B-E960839CEFF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H257">
     <sortCondition ref="A1:A257"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EF889FAC-9E6F-4740-A706-7430617E85B5}" name="First name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{28F816C7-879A-40F5-B1CF-3F8CD0D44EA7}" name="Last name" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{2F676C46-3D00-4A27-A9F6-C2FA1A6DA6E0}" name="PatientId" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3BE22C6D-6D9C-471E-A0F7-427FE25E9550}" name="LOINC-NUM" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{55E39471-B051-4B6E-972D-C4E9F951DF55}" name="Value" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{6E1661D5-D91B-472B-B184-95879FF2B22A}" name="Unit" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EF889FAC-9E6F-4740-A706-7430617E85B5}" name="First name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{28F816C7-879A-40F5-B1CF-3F8CD0D44EA7}" name="Last name" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{2F676C46-3D00-4A27-A9F6-C2FA1A6DA6E0}" name="PatientId" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3BE22C6D-6D9C-471E-A0F7-427FE25E9550}" name="LOINC-NUM" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{55E39471-B051-4B6E-972D-C4E9F951DF55}" name="Value" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6E1661D5-D91B-472B-B184-95879FF2B22A}" name="Unit" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{99C0158C-F3E2-4530-BE25-8BBB57894E98}" name="Valid start time" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{9189A167-024F-4E01-B352-B12A9FCCB680}" name="Transaction time" dataDxfId="0"/>
   </tableColumns>
@@ -629,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="175" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4674,10 +4683,10 @@
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C140" s="5">

--- a/data/project_db.xlsx
+++ b/data/project_db.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\cdss-dev-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE216C2F-5AED-4CE2-B32C-F2DC5843CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85158E79-C8DF-4D4E-8A6A-B290123D07FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="2" r:id="rId1"/>
     <sheet name="Measurements" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Measurements!$A$1:$F$1158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Measurements!$A$1:$F$1224</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="86">
   <si>
     <t>Value</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Bronchospasm</t>
   </si>
   <si>
-    <t>Â°C</t>
-  </si>
-  <si>
     <t>Desquamation</t>
   </si>
   <si>
@@ -273,6 +270,18 @@
   </si>
   <si>
     <t>Sex</t>
+  </si>
+  <si>
+    <t>Sever-Bronchospasm</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -327,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -371,6 +380,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368421E4-8352-48AB-B35B-E960839CEFF4}" name="Table1" displayName="Table1" ref="A1:F1158" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F1158" xr:uid="{368421E4-8352-48AB-B35B-E960839CEFF4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368421E4-8352-48AB-B35B-E960839CEFF4}" name="Table1" displayName="Table1" ref="A1:F1224" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F1224" xr:uid="{368421E4-8352-48AB-B35B-E960839CEFF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1158">
     <sortCondition ref="A2:A1158"/>
     <sortCondition ref="E2:E1158"/>
@@ -755,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4F158B-403D-472C-9BD6-CE22F0137559}">
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -778,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,10 +1044,18 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" s="11">
+        <v>147258369</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21"/>
@@ -1357,15 +1375,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1158"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1152" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A1158" sqref="A1158"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" customWidth="1"/>
     <col min="4" max="4" width="16" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -3081,7 +3101,7 @@
         <v>4438.5</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" s="6">
         <v>45704.655717592592</v>
@@ -3288,7 +3308,7 @@
         <v>5710.59</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E84" s="6">
         <v>45704.822384259256</v>
@@ -3495,7 +3515,7 @@
         <v>4468.5600000000004</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E93" s="6">
         <v>45704.989050925928</v>
@@ -3679,7 +3699,7 @@
         <v>3245.77</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E101" s="6">
         <v>45705.155717592592</v>
@@ -3745,7 +3765,7 @@
         <v>23924001</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>21</v>
@@ -3794,7 +3814,7 @@
         <v>8960.4599999999991</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E106" s="6">
         <v>45705.322384259256</v>
@@ -3929,7 +3949,7 @@
         <v>368009</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>21</v>
@@ -3952,7 +3972,7 @@
         <v>23924001</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>21</v>
@@ -4090,7 +4110,7 @@
         <v>368009</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>21</v>
@@ -4251,7 +4271,7 @@
         <v>368009</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>21</v>
@@ -4274,7 +4294,7 @@
         <v>23924001</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>21</v>
@@ -4552,8 +4572,8 @@
       <c r="C139" s="9">
         <v>37.54</v>
       </c>
-      <c r="D139" s="14" t="s">
-        <v>75</v>
+      <c r="D139" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E139" s="6">
         <v>45505.655717592592</v>
@@ -4713,8 +4733,8 @@
       <c r="C146" s="9">
         <v>39.03</v>
       </c>
-      <c r="D146" s="14" t="s">
-        <v>75</v>
+      <c r="D146" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E146" s="6">
         <v>45505.822384259256</v>
@@ -4874,8 +4894,8 @@
       <c r="C153" s="9">
         <v>36.049999999999997</v>
       </c>
-      <c r="D153" s="14" t="s">
-        <v>75</v>
+      <c r="D153" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E153" s="6">
         <v>45505.989050925928</v>
@@ -5127,8 +5147,8 @@
       <c r="C164" s="8">
         <v>39.630000000000003</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>75</v>
+      <c r="D164" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E164" s="6">
         <v>45607.655717592592</v>
@@ -5242,8 +5262,8 @@
       <c r="C169" s="8">
         <v>36.950000000000003</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>75</v>
+      <c r="D169" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E169" s="6">
         <v>45607.905717592592</v>
@@ -5357,8 +5377,8 @@
       <c r="C174" s="8">
         <v>38.21</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>75</v>
+      <c r="D174" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E174" s="6">
         <v>45608.155717592592</v>
@@ -5449,8 +5469,8 @@
       <c r="C178" s="8">
         <v>39.78</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>75</v>
+      <c r="D178" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E178" s="6">
         <v>45608.405717592592</v>
@@ -5541,8 +5561,8 @@
       <c r="C182" s="8">
         <v>37.06</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>75</v>
+      <c r="D182" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E182" s="6">
         <v>45608.655717592592</v>
@@ -5633,8 +5653,8 @@
       <c r="C186" s="8">
         <v>36.25</v>
       </c>
-      <c r="D186" s="9" t="s">
-        <v>75</v>
+      <c r="D186" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E186" s="6">
         <v>45608.905717592592</v>
@@ -6761,7 +6781,7 @@
         <v>4115.8100000000004</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E235" s="6">
         <v>45802.655717592592</v>
@@ -6827,7 +6847,7 @@
         <v>368009</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D238" s="14" t="s">
         <v>21</v>
@@ -6991,7 +7011,7 @@
         <v>13437.2</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E245" s="6">
         <v>45802.822384259256</v>
@@ -7057,7 +7077,7 @@
         <v>368009</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>21</v>
@@ -7221,7 +7241,7 @@
         <v>13470.63</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E255" s="6">
         <v>45802.989050925928</v>
@@ -7287,7 +7307,7 @@
         <v>368009</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D258" s="14" t="s">
         <v>21</v>
@@ -7444,7 +7464,7 @@
         <v>9120.1200000000008</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E265" s="6">
         <v>45803.155717592592</v>
@@ -7532,7 +7552,7 @@
         <v>6287.36</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E269" s="6">
         <v>45803.322384259256</v>
@@ -8535,7 +8555,7 @@
         <v>368009</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D319" s="14" t="s">
         <v>21</v>
@@ -8578,7 +8598,7 @@
         <v>1339.24</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E321" s="6">
         <v>45601.655717592592</v>
@@ -8655,7 +8675,7 @@
         <v>368009</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D325" s="14" t="s">
         <v>21</v>
@@ -8698,7 +8718,7 @@
         <v>6047.08</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E327" s="6">
         <v>45601.822384259256</v>
@@ -8775,7 +8795,7 @@
         <v>368009</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D331" s="14" t="s">
         <v>21</v>
@@ -8818,7 +8838,7 @@
         <v>7852.04</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E333" s="6">
         <v>45601.989050925928</v>
@@ -8898,7 +8918,7 @@
         <v>2317.59</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E337" s="6">
         <v>45602.155717592592</v>
@@ -9115,7 +9135,7 @@
         <v>368009</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D348" s="14" t="s">
         <v>21</v>
@@ -9157,8 +9177,8 @@
       <c r="C350" s="9">
         <v>30.29</v>
       </c>
-      <c r="D350" s="14" t="s">
-        <v>75</v>
+      <c r="D350" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E350" s="6">
         <v>45576.655717592592</v>
@@ -9255,7 +9275,7 @@
         <v>368009</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D355" s="14" t="s">
         <v>21</v>
@@ -9297,8 +9317,8 @@
       <c r="C357" s="9">
         <v>37.03</v>
       </c>
-      <c r="D357" s="14" t="s">
-        <v>75</v>
+      <c r="D357" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E357" s="6">
         <v>45576.822384259256</v>
@@ -9395,7 +9415,7 @@
         <v>368009</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D362" s="14" t="s">
         <v>21</v>
@@ -9437,8 +9457,8 @@
       <c r="C364" s="9">
         <v>39.76</v>
       </c>
-      <c r="D364" s="14" t="s">
-        <v>75</v>
+      <c r="D364" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E364" s="6">
         <v>45576.989050925928</v>
@@ -9617,8 +9637,8 @@
       <c r="C373" s="8">
         <v>26.71</v>
       </c>
-      <c r="D373" s="9" t="s">
-        <v>75</v>
+      <c r="D373" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E373" s="6">
         <v>45784.655717592592</v>
@@ -9717,8 +9737,8 @@
       <c r="C378" s="8">
         <v>39.700000000000003</v>
       </c>
-      <c r="D378" s="9" t="s">
-        <v>75</v>
+      <c r="D378" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E378" s="6">
         <v>45784.905717592592</v>
@@ -9817,8 +9837,8 @@
       <c r="C383" s="8">
         <v>40.6</v>
       </c>
-      <c r="D383" s="9" t="s">
-        <v>75</v>
+      <c r="D383" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E383" s="6">
         <v>45785.155717592592</v>
@@ -9917,8 +9937,8 @@
       <c r="C388" s="8">
         <v>39.53</v>
       </c>
-      <c r="D388" s="9" t="s">
-        <v>75</v>
+      <c r="D388" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E388" s="6">
         <v>45785.405717592592</v>
@@ -9977,8 +9997,8 @@
       <c r="C391" s="8">
         <v>36.659999999999997</v>
       </c>
-      <c r="D391" s="9" t="s">
-        <v>75</v>
+      <c r="D391" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E391" s="6">
         <v>45785.655717592592</v>
@@ -10037,8 +10057,8 @@
       <c r="C394" s="8">
         <v>37.32</v>
       </c>
-      <c r="D394" s="9" t="s">
-        <v>75</v>
+      <c r="D394" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E394" s="6">
         <v>45785.905717592592</v>
@@ -10275,7 +10295,7 @@
         <v>368009</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D406" s="14" t="s">
         <v>21</v>
@@ -10435,7 +10455,7 @@
         <v>368009</v>
       </c>
       <c r="C414" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D414" s="14" t="s">
         <v>21</v>
@@ -10595,7 +10615,7 @@
         <v>368009</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D422" s="14" t="s">
         <v>21</v>
@@ -10695,7 +10715,7 @@
         <v>368009</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D427" s="14" t="s">
         <v>21</v>
@@ -10818,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E433" s="6">
         <v>45680.655717592592</v>
@@ -10835,7 +10855,7 @@
         <v>368009</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D434" s="14" t="s">
         <v>21</v>
@@ -11018,7 +11038,7 @@
         <v>10662.1</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E443" s="6">
         <v>45680.822384259256</v>
@@ -11035,7 +11055,7 @@
         <v>368009</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D444" s="14" t="s">
         <v>21</v>
@@ -11218,7 +11238,7 @@
         <v>13860.13</v>
       </c>
       <c r="D453" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E453" s="6">
         <v>45680.989050925928</v>
@@ -11235,7 +11255,7 @@
         <v>368009</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D454" s="14" t="s">
         <v>21</v>
@@ -11255,7 +11275,7 @@
         <v>23924001</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D455" s="14" t="s">
         <v>21</v>
@@ -11418,7 +11438,7 @@
         <v>20394.28</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E463" s="6">
         <v>45681.155717592592</v>
@@ -11578,7 +11598,7 @@
         <v>13549.09</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E471" s="6">
         <v>45681.322384259256</v>
@@ -12338,7 +12358,7 @@
         <v>7308.45</v>
       </c>
       <c r="D509" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E509" s="6">
         <v>45588.655717592592</v>
@@ -12518,7 +12538,7 @@
         <v>6685.29</v>
       </c>
       <c r="D518" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E518" s="6">
         <v>45588.822384259256</v>
@@ -12698,7 +12718,7 @@
         <v>1528.07</v>
       </c>
       <c r="D527" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E527" s="6">
         <v>45588.989050925928</v>
@@ -13115,7 +13135,7 @@
         <v>368009</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D548" s="9" t="s">
         <v>21</v>
@@ -13137,8 +13157,8 @@
       <c r="C549" s="8">
         <v>38.89</v>
       </c>
-      <c r="D549" s="9" t="s">
-        <v>75</v>
+      <c r="D549" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E549" s="6">
         <v>45780.655717592592</v>
@@ -13275,7 +13295,7 @@
         <v>368009</v>
       </c>
       <c r="C556" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D556" s="9" t="s">
         <v>21</v>
@@ -13297,8 +13317,8 @@
       <c r="C557" s="8">
         <v>40.99</v>
       </c>
-      <c r="D557" s="9" t="s">
-        <v>75</v>
+      <c r="D557" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E557" s="6">
         <v>45780.905717592592</v>
@@ -13435,7 +13455,7 @@
         <v>368009</v>
       </c>
       <c r="C564" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D564" s="9" t="s">
         <v>21</v>
@@ -13457,8 +13477,8 @@
       <c r="C565" s="8">
         <v>38.83</v>
       </c>
-      <c r="D565" s="9" t="s">
-        <v>75</v>
+      <c r="D565" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E565" s="6">
         <v>45781.155717592592</v>
@@ -13555,7 +13575,7 @@
         <v>368009</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D570" s="9" t="s">
         <v>21</v>
@@ -13577,8 +13597,8 @@
       <c r="C571" s="8">
         <v>37.659999999999997</v>
       </c>
-      <c r="D571" s="9" t="s">
-        <v>75</v>
+      <c r="D571" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E571" s="6">
         <v>45781.405717592592</v>
@@ -13635,7 +13655,7 @@
         <v>368009</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D574" s="9" t="s">
         <v>21</v>
@@ -13657,8 +13677,8 @@
       <c r="C575" s="8">
         <v>37.700000000000003</v>
       </c>
-      <c r="D575" s="9" t="s">
-        <v>75</v>
+      <c r="D575" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E575" s="6">
         <v>45781.655717592592</v>
@@ -13695,7 +13715,7 @@
         <v>368009</v>
       </c>
       <c r="C577" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D577" s="9" t="s">
         <v>21</v>
@@ -14177,8 +14197,8 @@
       <c r="C601" s="9">
         <v>38.03</v>
       </c>
-      <c r="D601" s="14" t="s">
-        <v>75</v>
+      <c r="D601" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E601" s="6">
         <v>45682.655717592592</v>
@@ -14198,7 +14218,7 @@
         <v>4101.4799999999996</v>
       </c>
       <c r="D602" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E602" s="6">
         <v>45682.655717592592</v>
@@ -14255,7 +14275,7 @@
         <v>368009</v>
       </c>
       <c r="C605" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D605" s="14" t="s">
         <v>21</v>
@@ -14317,8 +14337,8 @@
       <c r="C608" s="9">
         <v>41.06</v>
       </c>
-      <c r="D608" s="14" t="s">
-        <v>75</v>
+      <c r="D608" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E608" s="6">
         <v>45682.822384259256</v>
@@ -14338,7 +14358,7 @@
         <v>10963.05</v>
       </c>
       <c r="D609" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E609" s="6">
         <v>45682.822384259256</v>
@@ -14395,7 +14415,7 @@
         <v>368009</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D612" s="14" t="s">
         <v>21</v>
@@ -14457,8 +14477,8 @@
       <c r="C615" s="9">
         <v>40.26</v>
       </c>
-      <c r="D615" s="14" t="s">
-        <v>75</v>
+      <c r="D615" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E615" s="6">
         <v>45682.989050925928</v>
@@ -14478,7 +14498,7 @@
         <v>12469.04</v>
       </c>
       <c r="D616" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E616" s="6">
         <v>45682.989050925928</v>
@@ -14535,7 +14555,7 @@
         <v>368009</v>
       </c>
       <c r="C619" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D619" s="14" t="s">
         <v>21</v>
@@ -14597,8 +14617,8 @@
       <c r="C622" s="9">
         <v>37.229999999999997</v>
       </c>
-      <c r="D622" s="14" t="s">
-        <v>75</v>
+      <c r="D622" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E622" s="6">
         <v>45683.155717592592</v>
@@ -14618,7 +14638,7 @@
         <v>4316.49</v>
       </c>
       <c r="D623" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E623" s="6">
         <v>45683.155717592592</v>
@@ -14697,8 +14717,8 @@
       <c r="C627" s="9">
         <v>40.26</v>
       </c>
-      <c r="D627" s="14" t="s">
-        <v>75</v>
+      <c r="D627" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E627" s="6">
         <v>45683.322384259256</v>
@@ -14718,7 +14738,7 @@
         <v>10105.709999999999</v>
       </c>
       <c r="D628" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E628" s="6">
         <v>45683.322384259256</v>
@@ -14778,7 +14798,7 @@
         <v>21988.09</v>
       </c>
       <c r="D631" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E631" s="6">
         <v>45683.489050925928</v>
@@ -14837,8 +14857,8 @@
       <c r="C634" s="8">
         <v>37.89</v>
       </c>
-      <c r="D634" s="9" t="s">
-        <v>75</v>
+      <c r="D634" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E634" s="6">
         <v>45562.655717592592</v>
@@ -14977,8 +14997,8 @@
       <c r="C641" s="8">
         <v>51.53</v>
       </c>
-      <c r="D641" s="9" t="s">
-        <v>75</v>
+      <c r="D641" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E641" s="6">
         <v>45562.905717592592</v>
@@ -15117,8 +15137,8 @@
       <c r="C648" s="8">
         <v>36.29</v>
       </c>
-      <c r="D648" s="9" t="s">
-        <v>75</v>
+      <c r="D648" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E648" s="6">
         <v>45563.155717592592</v>
@@ -15237,8 +15257,8 @@
       <c r="C654" s="8">
         <v>40.35</v>
       </c>
-      <c r="D654" s="9" t="s">
-        <v>75</v>
+      <c r="D654" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E654" s="6">
         <v>45563.405717592592</v>
@@ -15317,8 +15337,8 @@
       <c r="C658" s="8">
         <v>38.18</v>
       </c>
-      <c r="D658" s="9" t="s">
-        <v>75</v>
+      <c r="D658" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E658" s="6">
         <v>45563.655717592592</v>
@@ -15377,8 +15397,8 @@
       <c r="C661" s="8">
         <v>25.7</v>
       </c>
-      <c r="D661" s="9" t="s">
-        <v>75</v>
+      <c r="D661" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E661" s="6">
         <v>45563.905717592592</v>
@@ -15418,7 +15438,7 @@
         <v>19539.259999999998</v>
       </c>
       <c r="D663" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E663" s="6">
         <v>45596.655717592592</v>
@@ -15435,7 +15455,7 @@
         <v>368009</v>
       </c>
       <c r="C664" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D664" s="14" t="s">
         <v>21</v>
@@ -15497,8 +15517,8 @@
       <c r="C667" s="9">
         <v>29.42</v>
       </c>
-      <c r="D667" s="14" t="s">
-        <v>75</v>
+      <c r="D667" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E667" s="6">
         <v>45596.655717592592</v>
@@ -15618,7 +15638,7 @@
         <v>1413.89</v>
       </c>
       <c r="D673" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E673" s="6">
         <v>45596.822384259256</v>
@@ -15635,7 +15655,7 @@
         <v>368009</v>
       </c>
       <c r="C674" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D674" s="14" t="s">
         <v>21</v>
@@ -15697,8 +15717,8 @@
       <c r="C677" s="9">
         <v>39.81</v>
       </c>
-      <c r="D677" s="14" t="s">
-        <v>75</v>
+      <c r="D677" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E677" s="6">
         <v>45596.822384259256</v>
@@ -15818,7 +15838,7 @@
         <v>4862.21</v>
       </c>
       <c r="D683" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E683" s="6">
         <v>45596.989050925928</v>
@@ -15835,7 +15855,7 @@
         <v>368009</v>
       </c>
       <c r="C684" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D684" s="14" t="s">
         <v>21</v>
@@ -15897,8 +15917,8 @@
       <c r="C687" s="9">
         <v>40.799999999999997</v>
       </c>
-      <c r="D687" s="14" t="s">
-        <v>75</v>
+      <c r="D687" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E687" s="6">
         <v>45596.989050925928</v>
@@ -15935,7 +15955,7 @@
         <v>23924001</v>
       </c>
       <c r="C689" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D689" s="14" t="s">
         <v>21</v>
@@ -16018,7 +16038,7 @@
         <v>3632.63</v>
       </c>
       <c r="D693" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E693" s="6">
         <v>45597.155717592592</v>
@@ -16035,7 +16055,7 @@
         <v>368009</v>
       </c>
       <c r="C694" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D694" s="14" t="s">
         <v>21</v>
@@ -16097,8 +16117,8 @@
       <c r="C697" s="9">
         <v>41.94</v>
       </c>
-      <c r="D697" s="14" t="s">
-        <v>75</v>
+      <c r="D697" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E697" s="6">
         <v>45597.155717592592</v>
@@ -16297,8 +16317,8 @@
       <c r="C707" s="8">
         <v>39.130000000000003</v>
       </c>
-      <c r="D707" s="9" t="s">
-        <v>75</v>
+      <c r="D707" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E707" s="6">
         <v>45607.655717592592</v>
@@ -16397,8 +16417,8 @@
       <c r="C712" s="8">
         <v>40.28</v>
       </c>
-      <c r="D712" s="9" t="s">
-        <v>75</v>
+      <c r="D712" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E712" s="6">
         <v>45607.905717592592</v>
@@ -16497,8 +16517,8 @@
       <c r="C717" s="8">
         <v>39.71</v>
       </c>
-      <c r="D717" s="9" t="s">
-        <v>75</v>
+      <c r="D717" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E717" s="6">
         <v>45608.155717592592</v>
@@ -16515,7 +16535,7 @@
         <v>23924001</v>
       </c>
       <c r="C718" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D718" s="9" t="s">
         <v>21</v>
@@ -16597,8 +16617,8 @@
       <c r="C722" s="8">
         <v>36.200000000000003</v>
       </c>
-      <c r="D722" s="9" t="s">
-        <v>75</v>
+      <c r="D722" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E722" s="6">
         <v>45608.405717592592</v>
@@ -16657,8 +16677,8 @@
       <c r="C725" s="8">
         <v>39.33</v>
       </c>
-      <c r="D725" s="9" t="s">
-        <v>75</v>
+      <c r="D725" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E725" s="6">
         <v>45608.655717592592</v>
@@ -16758,7 +16778,7 @@
         <v>2479.66</v>
       </c>
       <c r="D730" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E730" s="6">
         <v>45630.655717592592</v>
@@ -16875,7 +16895,7 @@
         <v>368009</v>
       </c>
       <c r="C736" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D736" s="14" t="s">
         <v>21</v>
@@ -16898,7 +16918,7 @@
         <v>14009.86</v>
       </c>
       <c r="D737" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E737" s="6">
         <v>45630.822384259256</v>
@@ -17015,7 +17035,7 @@
         <v>368009</v>
       </c>
       <c r="C743" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D743" s="14" t="s">
         <v>21</v>
@@ -17038,7 +17058,7 @@
         <v>14732.19</v>
       </c>
       <c r="D744" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E744" s="6">
         <v>45630.989050925928</v>
@@ -17155,7 +17175,7 @@
         <v>368009</v>
       </c>
       <c r="C750" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D750" s="14" t="s">
         <v>21</v>
@@ -17178,7 +17198,7 @@
         <v>7368.78</v>
       </c>
       <c r="D751" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E751" s="6">
         <v>45631.155717592592</v>
@@ -17255,7 +17275,7 @@
         <v>368009</v>
       </c>
       <c r="C755" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D755" s="14" t="s">
         <v>21</v>
@@ -17278,7 +17298,7 @@
         <v>11628.72</v>
       </c>
       <c r="D756" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E756" s="6">
         <v>45631.322384259256</v>
@@ -17415,7 +17435,7 @@
         <v>368009</v>
       </c>
       <c r="C763" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D763" s="9" t="s">
         <v>21</v>
@@ -17515,7 +17535,7 @@
         <v>368009</v>
       </c>
       <c r="C768" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D768" s="9" t="s">
         <v>21</v>
@@ -17615,7 +17635,7 @@
         <v>368009</v>
       </c>
       <c r="C773" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D773" s="9" t="s">
         <v>21</v>
@@ -17818,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="D783" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E783" s="6">
         <v>45683.655717592592</v>
@@ -17935,7 +17955,7 @@
         <v>368009</v>
       </c>
       <c r="C789" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D789" s="14" t="s">
         <v>21</v>
@@ -17978,7 +17998,7 @@
         <v>12245.7</v>
       </c>
       <c r="D791" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E791" s="6">
         <v>45683.822384259256</v>
@@ -18095,7 +18115,7 @@
         <v>368009</v>
       </c>
       <c r="C797" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D797" s="14" t="s">
         <v>21</v>
@@ -18138,7 +18158,7 @@
         <v>7373.16</v>
       </c>
       <c r="D799" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E799" s="6">
         <v>45683.989050925928</v>
@@ -18255,7 +18275,7 @@
         <v>368009</v>
       </c>
       <c r="C805" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D805" s="14" t="s">
         <v>21</v>
@@ -18298,7 +18318,7 @@
         <v>5516.06</v>
       </c>
       <c r="D807" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E807" s="6">
         <v>45684.155717592592</v>
@@ -18395,7 +18415,7 @@
         <v>368009</v>
       </c>
       <c r="C812" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D812" s="14" t="s">
         <v>21</v>
@@ -18438,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="D814" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E814" s="6">
         <v>45684.322384259256</v>
@@ -18515,7 +18535,7 @@
         <v>368009</v>
       </c>
       <c r="C818" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D818" s="14" t="s">
         <v>21</v>
@@ -19115,7 +19135,7 @@
         <v>368009</v>
       </c>
       <c r="C848" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D848" s="14" t="s">
         <v>21</v>
@@ -19295,7 +19315,7 @@
         <v>368009</v>
       </c>
       <c r="C857" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D857" s="14" t="s">
         <v>21</v>
@@ -19455,7 +19475,7 @@
         <v>23924001</v>
       </c>
       <c r="C865" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D865" s="14" t="s">
         <v>21</v>
@@ -19475,7 +19495,7 @@
         <v>368009</v>
       </c>
       <c r="C866" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D866" s="14" t="s">
         <v>21</v>
@@ -19595,7 +19615,7 @@
         <v>23924001</v>
       </c>
       <c r="C872" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D872" s="14" t="s">
         <v>21</v>
@@ -19615,7 +19635,7 @@
         <v>368009</v>
       </c>
       <c r="C873" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D873" s="14" t="s">
         <v>21</v>
@@ -19695,7 +19715,7 @@
         <v>368009</v>
       </c>
       <c r="C877" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D877" s="14" t="s">
         <v>21</v>
@@ -19735,7 +19755,7 @@
         <v>368009</v>
       </c>
       <c r="C879" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D879" s="14" t="s">
         <v>21</v>
@@ -19895,7 +19915,7 @@
         <v>368009</v>
       </c>
       <c r="C887" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D887" s="14" t="s">
         <v>21</v>
@@ -20035,7 +20055,7 @@
         <v>368009</v>
       </c>
       <c r="C894" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D894" s="14" t="s">
         <v>21</v>
@@ -20175,7 +20195,7 @@
         <v>368009</v>
       </c>
       <c r="C901" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D901" s="14" t="s">
         <v>21</v>
@@ -20295,7 +20315,7 @@
         <v>368009</v>
       </c>
       <c r="C907" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D907" s="14" t="s">
         <v>21</v>
@@ -20415,7 +20435,7 @@
         <v>368009</v>
       </c>
       <c r="C913" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D913" s="14" t="s">
         <v>21</v>
@@ -20555,7 +20575,7 @@
         <v>368009</v>
       </c>
       <c r="C920" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D920" s="9" t="s">
         <v>21</v>
@@ -20675,7 +20695,7 @@
         <v>368009</v>
       </c>
       <c r="C926" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D926" s="9" t="s">
         <v>21</v>
@@ -20795,7 +20815,7 @@
         <v>368009</v>
       </c>
       <c r="C932" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D932" s="9" t="s">
         <v>21</v>
@@ -20915,7 +20935,7 @@
         <v>368009</v>
       </c>
       <c r="C938" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D938" s="9" t="s">
         <v>21</v>
@@ -21035,7 +21055,7 @@
         <v>368009</v>
       </c>
       <c r="C944" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D944" s="9" t="s">
         <v>21</v>
@@ -21115,7 +21135,7 @@
         <v>368009</v>
       </c>
       <c r="C948" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D948" s="9" t="s">
         <v>21</v>
@@ -21218,7 +21238,7 @@
         <v>3802.02</v>
       </c>
       <c r="D953" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E953" s="6">
         <v>45630.655717592592</v>
@@ -21255,7 +21275,7 @@
         <v>368009</v>
       </c>
       <c r="C955" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D955" s="9" t="s">
         <v>21</v>
@@ -21275,7 +21295,7 @@
         <v>23924001</v>
       </c>
       <c r="C956" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D956" s="9" t="s">
         <v>21</v>
@@ -21378,7 +21398,7 @@
         <v>13340.77</v>
       </c>
       <c r="D961" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E961" s="6">
         <v>45630.905717592592</v>
@@ -21415,7 +21435,7 @@
         <v>368009</v>
       </c>
       <c r="C963" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D963" s="9" t="s">
         <v>21</v>
@@ -21538,7 +21558,7 @@
         <v>769.26</v>
       </c>
       <c r="D969" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E969" s="6">
         <v>45631.155717592592</v>
@@ -21575,7 +21595,7 @@
         <v>368009</v>
       </c>
       <c r="C971" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D971" s="9" t="s">
         <v>21</v>
@@ -21658,7 +21678,7 @@
         <v>4624.46</v>
       </c>
       <c r="D975" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E975" s="6">
         <v>45631.405717592592</v>
@@ -21695,7 +21715,7 @@
         <v>368009</v>
       </c>
       <c r="C977" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D977" s="9" t="s">
         <v>21</v>
@@ -21778,7 +21798,7 @@
         <v>227.91</v>
       </c>
       <c r="D981" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E981" s="6">
         <v>45631.655717592592</v>
@@ -21858,7 +21878,7 @@
         <v>3698</v>
       </c>
       <c r="D985" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E985" s="6">
         <v>45631.905717592592</v>
@@ -21917,8 +21937,8 @@
       <c r="C988" s="9">
         <v>61.85</v>
       </c>
-      <c r="D988" s="14" t="s">
-        <v>75</v>
+      <c r="D988" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E988" s="6">
         <v>45734.655717592592</v>
@@ -21935,7 +21955,7 @@
         <v>368009</v>
       </c>
       <c r="C989" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D989" s="14" t="s">
         <v>21</v>
@@ -21998,7 +22018,7 @@
         <v>1433.23</v>
       </c>
       <c r="D992" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E992" s="6">
         <v>45734.655717592592</v>
@@ -22057,8 +22077,8 @@
       <c r="C995" s="9">
         <v>41.13</v>
       </c>
-      <c r="D995" s="14" t="s">
-        <v>75</v>
+      <c r="D995" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E995" s="6">
         <v>45734.822384259256</v>
@@ -22075,7 +22095,7 @@
         <v>368009</v>
       </c>
       <c r="C996" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D996" s="14" t="s">
         <v>21</v>
@@ -22138,7 +22158,7 @@
         <v>13869.55</v>
       </c>
       <c r="D999" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E999" s="6">
         <v>45734.822384259256</v>
@@ -22197,8 +22217,8 @@
       <c r="C1002" s="9">
         <v>38.6</v>
       </c>
-      <c r="D1002" s="14" t="s">
-        <v>75</v>
+      <c r="D1002" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1002" s="6">
         <v>45734.989050925928</v>
@@ -22215,7 +22235,7 @@
         <v>368009</v>
       </c>
       <c r="C1003" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1003" s="14" t="s">
         <v>21</v>
@@ -22278,7 +22298,7 @@
         <v>2537.16</v>
       </c>
       <c r="D1006" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1006" s="6">
         <v>45734.989050925928</v>
@@ -22317,8 +22337,8 @@
       <c r="C1008" s="9">
         <v>39.1</v>
       </c>
-      <c r="D1008" s="14" t="s">
-        <v>75</v>
+      <c r="D1008" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1008" s="6">
         <v>45735.155717592592</v>
@@ -23477,8 +23497,8 @@
       <c r="C1066" s="9">
         <v>39.11</v>
       </c>
-      <c r="D1066" s="14" t="s">
-        <v>75</v>
+      <c r="D1066" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1066" s="6">
         <v>45796.655717592592</v>
@@ -23558,7 +23578,7 @@
         <v>6357.68</v>
       </c>
       <c r="D1070" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1070" s="6">
         <v>45796.655717592592</v>
@@ -23617,8 +23637,8 @@
       <c r="C1073" s="9">
         <v>38.72</v>
       </c>
-      <c r="D1073" s="14" t="s">
-        <v>75</v>
+      <c r="D1073" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1073" s="6">
         <v>45796.822384259256</v>
@@ -23698,7 +23718,7 @@
         <v>1156.54</v>
       </c>
       <c r="D1077" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1077" s="6">
         <v>45796.822384259256</v>
@@ -23757,8 +23777,8 @@
       <c r="C1080" s="9">
         <v>37.74</v>
       </c>
-      <c r="D1080" s="14" t="s">
-        <v>75</v>
+      <c r="D1080" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1080" s="6">
         <v>45796.989050925928</v>
@@ -23838,7 +23858,7 @@
         <v>12451.47</v>
       </c>
       <c r="D1084" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1084" s="6">
         <v>45796.989050925928</v>
@@ -23958,7 +23978,7 @@
         <v>13142.67</v>
       </c>
       <c r="D1090" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1090" s="6">
         <v>45797.155717592592</v>
@@ -24097,8 +24117,8 @@
       <c r="C1097" s="8">
         <v>39.82</v>
       </c>
-      <c r="D1097" s="9" t="s">
-        <v>75</v>
+      <c r="D1097" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1097" s="6">
         <v>45587.655717592592</v>
@@ -24118,7 +24138,7 @@
         <v>21543.82</v>
       </c>
       <c r="D1098" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1098" s="6">
         <v>45587.655717592592</v>
@@ -24155,7 +24175,7 @@
         <v>368009</v>
       </c>
       <c r="C1100" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1100" s="9" t="s">
         <v>21</v>
@@ -24175,7 +24195,7 @@
         <v>23924001</v>
       </c>
       <c r="C1101" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1101" s="9" t="s">
         <v>21</v>
@@ -24217,8 +24237,8 @@
       <c r="C1103" s="8">
         <v>41.97</v>
       </c>
-      <c r="D1103" s="9" t="s">
-        <v>75</v>
+      <c r="D1103" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1103" s="6">
         <v>45587.905717592592</v>
@@ -24238,7 +24258,7 @@
         <v>10610.85</v>
       </c>
       <c r="D1104" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1104" s="6">
         <v>45587.905717592592</v>
@@ -24275,7 +24295,7 @@
         <v>368009</v>
       </c>
       <c r="C1106" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1106" s="9" t="s">
         <v>21</v>
@@ -24337,8 +24357,8 @@
       <c r="C1109" s="8">
         <v>36.409999999999997</v>
       </c>
-      <c r="D1109" s="9" t="s">
-        <v>75</v>
+      <c r="D1109" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1109" s="6">
         <v>45588.155717592592</v>
@@ -24358,7 +24378,7 @@
         <v>5985.49</v>
       </c>
       <c r="D1110" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1110" s="6">
         <v>45588.155717592592</v>
@@ -24395,7 +24415,7 @@
         <v>368009</v>
       </c>
       <c r="C1112" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1112" s="9" t="s">
         <v>21</v>
@@ -24437,8 +24457,8 @@
       <c r="C1114" s="8">
         <v>32.39</v>
       </c>
-      <c r="D1114" s="9" t="s">
-        <v>75</v>
+      <c r="D1114" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1114" s="6">
         <v>45588.405717592592</v>
@@ -24458,7 +24478,7 @@
         <v>14592.5</v>
       </c>
       <c r="D1115" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1115" s="6">
         <v>45588.405717592592</v>
@@ -24498,7 +24518,7 @@
         <v>3011.89</v>
       </c>
       <c r="D1117" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1117" s="6">
         <v>45588.655717592592</v>
@@ -24518,7 +24538,7 @@
         <v>4152.3</v>
       </c>
       <c r="D1118" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1118" s="6">
         <v>45588.905717592592</v>
@@ -24555,7 +24575,7 @@
         <v>368009</v>
       </c>
       <c r="C1120" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1120" s="14" t="s">
         <v>21</v>
@@ -24618,7 +24638,7 @@
         <v>10636.96</v>
       </c>
       <c r="D1123" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1123" s="6">
         <v>45606.655717592592</v>
@@ -24657,8 +24677,8 @@
       <c r="C1125" s="9">
         <v>36.659999999999997</v>
       </c>
-      <c r="D1125" s="14" t="s">
-        <v>75</v>
+      <c r="D1125" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1125" s="6">
         <v>45606.655717592592</v>
@@ -24715,7 +24735,7 @@
         <v>368009</v>
       </c>
       <c r="C1128" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1128" s="14" t="s">
         <v>21</v>
@@ -24778,7 +24798,7 @@
         <v>728.21</v>
       </c>
       <c r="D1131" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1131" s="6">
         <v>45606.822384259256</v>
@@ -24817,8 +24837,8 @@
       <c r="C1133" s="9">
         <v>40.6</v>
       </c>
-      <c r="D1133" s="14" t="s">
-        <v>75</v>
+      <c r="D1133" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1133" s="6">
         <v>45606.822384259256</v>
@@ -24875,7 +24895,7 @@
         <v>368009</v>
       </c>
       <c r="C1136" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1136" s="14" t="s">
         <v>21</v>
@@ -24938,7 +24958,7 @@
         <v>8442.0300000000007</v>
       </c>
       <c r="D1139" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1139" s="6">
         <v>45606.989050925928</v>
@@ -24977,8 +24997,8 @@
       <c r="C1141" s="9">
         <v>41.37</v>
       </c>
-      <c r="D1141" s="14" t="s">
-        <v>75</v>
+      <c r="D1141" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E1141" s="6">
         <v>45606.989050925928</v>
@@ -25035,7 +25055,7 @@
         <v>368009</v>
       </c>
       <c r="C1144" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1144" s="14" t="s">
         <v>21</v>
@@ -25098,7 +25118,7 @@
         <v>11940.63</v>
       </c>
       <c r="D1147" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1147" s="6">
         <v>45607.155717592592</v>
@@ -25155,7 +25175,7 @@
         <v>368009</v>
       </c>
       <c r="C1150" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1150" s="14" t="s">
         <v>21</v>
@@ -25255,7 +25275,7 @@
         <v>368009</v>
       </c>
       <c r="C1155" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1155" s="14" t="s">
         <v>21</v>
@@ -25325,6 +25345,1326 @@
       </c>
       <c r="F1158" s="6">
         <v>45607.573078703703</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1159" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1159" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1159" s="9">
+        <v>7</v>
+      </c>
+      <c r="D1159" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1159" s="6">
+        <v>45658.375</v>
+      </c>
+      <c r="F1159" s="6">
+        <v>45658.416666666657</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1160" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1160" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1160" s="9">
+        <v>3500</v>
+      </c>
+      <c r="D1160" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1160" s="6">
+        <v>45658.375</v>
+      </c>
+      <c r="F1160" s="6">
+        <v>45658.416666666657</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1161" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1161" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1161" s="9">
+        <v>38</v>
+      </c>
+      <c r="D1161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1161" s="6">
+        <v>45658.375</v>
+      </c>
+      <c r="F1161" s="6">
+        <v>45658.416666666657</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1162" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1162" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1162" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1162" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1162" s="6">
+        <v>45658.375</v>
+      </c>
+      <c r="F1162" s="6">
+        <v>45658.416666666657</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1163" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1163" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1163" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1163" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1163" s="6">
+        <v>45658.375</v>
+      </c>
+      <c r="F1163" s="6">
+        <v>45658.416666666657</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1164" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1164" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1164" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1164" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1164" s="6">
+        <v>45658.375</v>
+      </c>
+      <c r="F1164" s="6">
+        <v>45658.416666666657</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1165" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1165" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1165" s="9">
+        <v>14</v>
+      </c>
+      <c r="D1165" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1165" s="6">
+        <v>45659.375</v>
+      </c>
+      <c r="F1165" s="6">
+        <v>45659.416666666657</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1166" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1166" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1166" s="9">
+        <v>3500</v>
+      </c>
+      <c r="D1166" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1166" s="6">
+        <v>45659.375</v>
+      </c>
+      <c r="F1166" s="6">
+        <v>45659.416666666657</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1167" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1167" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1167" s="9">
+        <v>39</v>
+      </c>
+      <c r="D1167" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1167" s="6">
+        <v>45659.375</v>
+      </c>
+      <c r="F1167" s="6">
+        <v>45659.416666666657</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1168" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1168" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1168" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1168" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1168" s="6">
+        <v>45659.375</v>
+      </c>
+      <c r="F1168" s="6">
+        <v>45659.416666666657</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1169" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1169" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1169" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1169" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1169" s="6">
+        <v>45659.375</v>
+      </c>
+      <c r="F1169" s="6">
+        <v>45659.416666666657</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1170" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1170" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1170" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1170" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1170" s="6">
+        <v>45659.375</v>
+      </c>
+      <c r="F1170" s="6">
+        <v>45659.416666666657</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1171" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1171" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1171" s="9">
+        <v>17</v>
+      </c>
+      <c r="D1171" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1171" s="6">
+        <v>45660.375</v>
+      </c>
+      <c r="F1171" s="6">
+        <v>45660.416666666657</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1172" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1172" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1172" s="9">
+        <v>3500</v>
+      </c>
+      <c r="D1172" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1172" s="6">
+        <v>45660.375</v>
+      </c>
+      <c r="F1172" s="6">
+        <v>45660.416666666657</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1173" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1173" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1173" s="9">
+        <v>40.1</v>
+      </c>
+      <c r="D1173" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1173" s="6">
+        <v>45660.375</v>
+      </c>
+      <c r="F1173" s="6">
+        <v>45660.416666666657</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1174" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1174" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1174" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1174" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1174" s="6">
+        <v>45660.375</v>
+      </c>
+      <c r="F1174" s="6">
+        <v>45660.416666666657</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1175" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1175" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1175" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1175" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1175" s="6">
+        <v>45660.375</v>
+      </c>
+      <c r="F1175" s="6">
+        <v>45660.416666666657</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1176" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1176" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1176" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1176" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1176" s="6">
+        <v>45660.375</v>
+      </c>
+      <c r="F1176" s="6">
+        <v>45660.416666666657</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1177" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1177" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1177" s="9">
+        <v>10</v>
+      </c>
+      <c r="D1177" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1177" s="6">
+        <v>45661.375</v>
+      </c>
+      <c r="F1177" s="6">
+        <v>45661.416666666657</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1178" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1178" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1178" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D1178" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1178" s="6">
+        <v>45661.375</v>
+      </c>
+      <c r="F1178" s="6">
+        <v>45661.416666666657</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1179" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1179" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1179" s="9">
+        <v>40</v>
+      </c>
+      <c r="D1179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1179" s="6">
+        <v>45661.375</v>
+      </c>
+      <c r="F1179" s="6">
+        <v>45661.416666666657</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1180" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1180" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1180" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1180" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1180" s="6">
+        <v>45661.375</v>
+      </c>
+      <c r="F1180" s="6">
+        <v>45661.416666666657</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1181" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1181" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1181" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1181" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1181" s="6">
+        <v>45661.375</v>
+      </c>
+      <c r="F1181" s="6">
+        <v>45661.416666666657</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1182" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1182" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1182" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1182" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1182" s="6">
+        <v>45661.375</v>
+      </c>
+      <c r="F1182" s="6">
+        <v>45661.416666666657</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1183" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1183" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1183" s="9">
+        <v>14</v>
+      </c>
+      <c r="D1183" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1183" s="6">
+        <v>45662.375</v>
+      </c>
+      <c r="F1183" s="6">
+        <v>45662.416666666657</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1184" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1184" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1184" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D1184" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1184" s="6">
+        <v>45662.375</v>
+      </c>
+      <c r="F1184" s="6">
+        <v>45662.416666666657</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1185" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1185" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1185" s="9">
+        <v>38.4</v>
+      </c>
+      <c r="D1185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1185" s="6">
+        <v>45662.375</v>
+      </c>
+      <c r="F1185" s="6">
+        <v>45662.416666666657</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1186" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1186" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1186" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1186" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1186" s="6">
+        <v>45662.375</v>
+      </c>
+      <c r="F1186" s="6">
+        <v>45662.416666666657</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1187" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1187" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1187" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1187" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1187" s="6">
+        <v>45662.375</v>
+      </c>
+      <c r="F1187" s="6">
+        <v>45662.416666666657</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1188" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1188" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1188" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1188" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1188" s="6">
+        <v>45662.375</v>
+      </c>
+      <c r="F1188" s="6">
+        <v>45662.416666666657</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1189" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1189" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1189" s="9">
+        <v>17</v>
+      </c>
+      <c r="D1189" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1189" s="6">
+        <v>45663.375</v>
+      </c>
+      <c r="F1189" s="6">
+        <v>45663.416666666657</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1190" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1190" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1190" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D1190" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1190" s="6">
+        <v>45663.375</v>
+      </c>
+      <c r="F1190" s="6">
+        <v>45663.416666666657</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1191" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1191" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1191" s="9">
+        <v>39.5</v>
+      </c>
+      <c r="D1191" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1191" s="6">
+        <v>45663.375</v>
+      </c>
+      <c r="F1191" s="6">
+        <v>45663.416666666657</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1192" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1192" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1192" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1192" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1192" s="6">
+        <v>45663.375</v>
+      </c>
+      <c r="F1192" s="6">
+        <v>45663.416666666657</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1193" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1193" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1193" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1193" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1193" s="6">
+        <v>45663.375</v>
+      </c>
+      <c r="F1193" s="6">
+        <v>45663.416666666657</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1194" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1194" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1194" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1194" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1194" s="6">
+        <v>45663.375</v>
+      </c>
+      <c r="F1194" s="6">
+        <v>45663.416666666657</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1195" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1195" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1195" s="9">
+        <v>11</v>
+      </c>
+      <c r="D1195" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1195" s="6">
+        <v>45664.375</v>
+      </c>
+      <c r="F1195" s="6">
+        <v>45664.416666666657</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1196" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1196" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1196" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D1196" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1196" s="6">
+        <v>45664.375</v>
+      </c>
+      <c r="F1196" s="6">
+        <v>45664.416666666657</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1197" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1197" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1197" s="9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D1197" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1197" s="6">
+        <v>45664.375</v>
+      </c>
+      <c r="F1197" s="6">
+        <v>45664.416666666657</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1198" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1198" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1198" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1198" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1198" s="6">
+        <v>45664.375</v>
+      </c>
+      <c r="F1198" s="6">
+        <v>45664.416666666657</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1199" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1199" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1199" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1199" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1199" s="6">
+        <v>45664.375</v>
+      </c>
+      <c r="F1199" s="6">
+        <v>45664.416666666657</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1200" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1200" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1200" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1200" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1200" s="6">
+        <v>45664.375</v>
+      </c>
+      <c r="F1200" s="6">
+        <v>45664.416666666657</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1201" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1201" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1201" s="9">
+        <v>14</v>
+      </c>
+      <c r="D1201" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1201" s="6">
+        <v>45665.375</v>
+      </c>
+      <c r="F1201" s="6">
+        <v>45665.416666666657</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1202" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1202" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1202" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D1202" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1202" s="6">
+        <v>45665.375</v>
+      </c>
+      <c r="F1202" s="6">
+        <v>45665.416666666657</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1203" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1203" s="9">
+        <v>40</v>
+      </c>
+      <c r="D1203" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1203" s="6">
+        <v>45665.375</v>
+      </c>
+      <c r="F1203" s="6">
+        <v>45665.416666666657</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1204" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1204" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1204" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1204" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1204" s="6">
+        <v>45665.375</v>
+      </c>
+      <c r="F1204" s="6">
+        <v>45665.416666666657</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1205" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1205" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1205" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1205" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1205" s="6">
+        <v>45665.375</v>
+      </c>
+      <c r="F1205" s="6">
+        <v>45665.416666666657</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1206" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1206" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1206" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1206" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1206" s="6">
+        <v>45665.375</v>
+      </c>
+      <c r="F1206" s="6">
+        <v>45665.416666666657</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1207" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1207" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1207" s="9">
+        <v>17</v>
+      </c>
+      <c r="D1207" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1207" s="6">
+        <v>45666.375</v>
+      </c>
+      <c r="F1207" s="6">
+        <v>45666.416666666657</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1208" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1208" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1208" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D1208" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1208" s="6">
+        <v>45666.375</v>
+      </c>
+      <c r="F1208" s="6">
+        <v>45666.416666666657</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1209" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1209" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1209" s="9">
+        <v>38.6</v>
+      </c>
+      <c r="D1209" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1209" s="6">
+        <v>45666.375</v>
+      </c>
+      <c r="F1209" s="6">
+        <v>45666.416666666657</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1210" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1210" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1210" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1210" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1210" s="6">
+        <v>45666.375</v>
+      </c>
+      <c r="F1210" s="6">
+        <v>45666.416666666657</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1211" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1211" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1211" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1211" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1211" s="6">
+        <v>45666.375</v>
+      </c>
+      <c r="F1211" s="6">
+        <v>45666.416666666657</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1212" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1212" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1212" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1212" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1212" s="6">
+        <v>45666.375</v>
+      </c>
+      <c r="F1212" s="6">
+        <v>45666.416666666657</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1213" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1213" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1213" s="9">
+        <v>10</v>
+      </c>
+      <c r="D1213" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1213" s="6">
+        <v>45667.416666666664</v>
+      </c>
+      <c r="F1213" s="6">
+        <v>45667.416666666664</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1214" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1214" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1214" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D1214" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1214" s="6">
+        <v>45667.416666666664</v>
+      </c>
+      <c r="F1214" s="6">
+        <v>45667.416666666664</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1215" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1215" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1215" s="9">
+        <v>39</v>
+      </c>
+      <c r="D1215" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1215" s="6">
+        <v>45667.416666666664</v>
+      </c>
+      <c r="F1215" s="6">
+        <v>45667.416666666664</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1216" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1216" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1216" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1216" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1216" s="6">
+        <v>45667.416666666664</v>
+      </c>
+      <c r="F1216" s="6">
+        <v>45667.416666666664</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1217" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1217" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1217" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1217" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1217" s="6">
+        <v>45667.416666666664</v>
+      </c>
+      <c r="F1217" s="6">
+        <v>45667.416666666664</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1218" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1218" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1218" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1218" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1218" s="6">
+        <v>45667.416666666664</v>
+      </c>
+      <c r="F1218" s="6">
+        <v>45667.416666666664</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1219" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1219" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1219" s="9">
+        <v>17</v>
+      </c>
+      <c r="D1219" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1219" s="6">
+        <v>45668.416666666664</v>
+      </c>
+      <c r="F1219" s="6">
+        <v>45668.416666666664</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1220" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1220" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1220" s="9">
+        <v>12000</v>
+      </c>
+      <c r="D1220" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1220" s="6">
+        <v>45668.416666666664</v>
+      </c>
+      <c r="F1220" s="6">
+        <v>45668.416666666664</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1221" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1221" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1221" s="9">
+        <v>40</v>
+      </c>
+      <c r="D1221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1221" s="6">
+        <v>45668.416666666664</v>
+      </c>
+      <c r="F1221" s="6">
+        <v>45668.416666666664</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1222" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1222" s="5">
+        <v>43724002</v>
+      </c>
+      <c r="C1222" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1222" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1222" s="6">
+        <v>45668.416666666664</v>
+      </c>
+      <c r="F1222" s="6">
+        <v>45668.416666666664</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1223" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1223" s="5">
+        <v>368009</v>
+      </c>
+      <c r="C1223" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1223" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1223" s="6">
+        <v>45668.416666666664</v>
+      </c>
+      <c r="F1223" s="6">
+        <v>45668.416666666664</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1224" s="5">
+        <v>147258369</v>
+      </c>
+      <c r="B1224" s="5">
+        <v>23924001</v>
+      </c>
+      <c r="C1224" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1224" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1224" s="6">
+        <v>45668.416666666664</v>
+      </c>
+      <c r="F1224" s="6">
+        <v>45668.416666666664</v>
       </c>
     </row>
   </sheetData>

--- a/data/project_db.xlsx
+++ b/data/project_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\cdss-dev-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruson\OneDrive\מסמכים\תואר שני\גרסה סופית פרויקט של ארז\CDSS-Dev-Project-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B499A8F8-E688-4D0C-A6DD-7DCAEA695BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0DC91F-BF7A-4544-9C21-D14EE283EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2325" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="84">
   <si>
     <t>Value</t>
   </si>
@@ -336,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,11 +344,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -397,6 +412,12 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1395,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A1215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1245" sqref="A1245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26918,8 +26939,8 @@
       <c r="A1250" s="3">
         <v>567890126</v>
       </c>
-      <c r="B1250" s="3">
-        <v>23924001</v>
+      <c r="B1250" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="C1250" s="6">
         <v>17</v>
@@ -26938,8 +26959,8 @@
       <c r="A1251" s="3">
         <v>678901237</v>
       </c>
-      <c r="B1251" s="3" t="s">
-        <v>35</v>
+      <c r="B1251" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C1251" s="6">
         <v>12000</v>
